--- a/FinalReport/appendices/test_procedure_Daniel.xlsx
+++ b/FinalReport/appendices/test_procedure_Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelian\Documents\GitHub\Capstone\Test Plans - HH2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelian\Documents\GitHub\Capstone\FinalReport\appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1431,6 +1431,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
@@ -2717,7 +2720,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
